--- a/doc/test11.xlsx
+++ b/doc/test11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,25 +83,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -111,20 +145,6 @@
       <color rgb="FF1F497D"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -148,61 +168,41 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color rgb="FF1F497D"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color rgb="FF1F497D"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -216,43 +216,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4DFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8064A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCD5B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8E4BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF1DE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FF92CDDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,84 +318,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4D79B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92CDDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB1A0C7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDA9694"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF95B3D7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC0504D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4DFEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2DCDB"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,24 +378,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB7DEE8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCC0DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6B8B7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,19 +396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4BACC6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8064A2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,21 +407,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,7 +429,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FFA7BFDE"/>
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,16 +453,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFA7BFDE"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +490,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF4F81BD"/>
       </top>
@@ -512,148 +512,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,7 +1057,7 @@
   <dimension ref="A2:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
